--- a/src/main/resources/excel/phrasal_verbs_part_1.xlsx
+++ b/src/main/resources/excel/phrasal_verbs_part_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="43"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Come over" sheetId="1" state="visible" r:id="rId2"/>
@@ -63,42 +63,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="304">
   <si>
     <t xml:space="preserve">Would you like to come over for lunch?</t>
   </si>
   <si>
+    <t xml:space="preserve">¿Te gustaría venir a almorzar?</t>
+  </si>
+  <si>
     <t xml:space="preserve">to visit someone’s house for a short time, (emotions) to affect someone strongly</t>
   </si>
   <si>
-    <t xml:space="preserve">Whenever I see that baby-pink dress, the feelings of missing my daughter just come over me</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sorry, I’ve got to go. My parents just came over from England</t>
+    <t xml:space="preserve">Whenever I see that baby pink dress, the feelings of missing my daughter just come over me</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cada vez que veo ese vestido rosa bebé, los sentimientos de extrañar a mi hija se apoderan de mí.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorry, I've got to go. My parents just came over from England</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo siento, tengo que irme. Mis padres acaban de venir de Inglaterra.</t>
   </si>
   <si>
     <t xml:space="preserve">My puppy has finally come back after three days</t>
   </si>
   <si>
+    <t xml:space="preserve">Mi cachorro finalmente ha regresado después de tres días.</t>
+  </si>
+  <si>
     <t xml:space="preserve">to go back to a place; to happen again</t>
   </si>
   <si>
     <t xml:space="preserve">All of my old memories came back after I watched this short video</t>
   </si>
   <si>
+    <t xml:space="preserve">Todos mis viejos recuerdos volvieron después de ver este breve video.</t>
+  </si>
+  <si>
     <t xml:space="preserve">The next day, he came back to me and said sorry</t>
   </si>
   <si>
+    <t xml:space="preserve">Al día siguiente, volvió y me dijo que lo sentía.</t>
+  </si>
+  <si>
     <t xml:space="preserve">The sun comes out after a dark night</t>
   </si>
   <si>
+    <t xml:space="preserve">El sol sale después de una noche oscura.</t>
+  </si>
+  <si>
     <t xml:space="preserve">to appear; to reveal the truth</t>
   </si>
   <si>
     <t xml:space="preserve">He has decided to come out to his parents</t>
   </si>
   <si>
-    <t xml:space="preserve">Don’t worry about the scandal. The truth will come out soon</t>
+    <t xml:space="preserve">Ha decidido salir del armario con sus padres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't worry about the scandal. The truth will come out soon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se preocupe por el escándalo. La verdad saldrá pronto</t>
   </si>
   <si>
     <t xml:space="preserve">Just go ahead. I'll come along</t>
@@ -1064,13 +1091,14 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="76.74"/>
   </cols>
   <sheetData>
@@ -1078,19 +1106,28 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1114,7 +1151,7 @@
       <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="67.76"/>
@@ -1123,29 +1160,29 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>55</v>
+        <v>63</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>64</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1170,7 +1207,7 @@
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="82.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="84.21"/>
@@ -1179,29 +1216,29 @@
   <sheetData>
     <row r="1" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>62</v>
+        <v>70</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1226,7 +1263,7 @@
       <selection pane="topLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="72.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="94.27"/>
@@ -1235,29 +1272,29 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>78</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1282,7 +1319,7 @@
       <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.43"/>
@@ -1291,29 +1328,29 @@
   <sheetData>
     <row r="1" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>76</v>
+        <v>84</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1338,7 +1375,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="57.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.51"/>
@@ -1347,29 +1384,29 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>83</v>
+        <v>91</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>92</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>88</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1394,38 +1431,38 @@
       <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="58.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="91.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="91.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="94.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1450,7 +1487,7 @@
       <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="74.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="88.56"/>
@@ -1459,29 +1496,29 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1506,38 +1543,38 @@
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="72.81"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="72.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="78.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="98.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>104</v>
+        <v>112</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>113</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>109</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1562,7 +1599,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="57.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="72.06"/>
@@ -1571,29 +1608,29 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>116</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1618,7 +1655,7 @@
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="65.21"/>
@@ -1627,29 +1664,29 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>127</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1671,31 +1708,41 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="73.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="73.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>8</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1720,7 +1767,7 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="79.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="69.1"/>
@@ -1729,29 +1776,29 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>125</v>
+        <v>133</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>134</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>130</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1776,7 +1823,7 @@
       <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="59.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.72"/>
@@ -1785,29 +1832,29 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>132</v>
+        <v>140</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>141</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>137</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1832,38 +1879,38 @@
       <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="60.94"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="60.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="80.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="87.99"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>139</v>
+        <v>147</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>144</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1888,7 +1935,7 @@
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="57.42"/>
@@ -1897,29 +1944,29 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>146</v>
+        <v>154</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>155</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1944,38 +1991,38 @@
       <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="77.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="125.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="125.96"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>153</v>
+        <v>161</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>162</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>156</v>
+        <v>164</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>158</v>
+        <v>166</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2000,38 +2047,38 @@
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="69.84"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="69.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="69.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="56.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="56.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>160</v>
+        <v>168</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>169</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>165</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2056,38 +2103,38 @@
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.8"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="65.02"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>167</v>
+        <v>175</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>176</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>172</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2112,38 +2159,38 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="119.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="119.32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>174</v>
+        <v>182</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>183</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2168,7 +2215,7 @@
       <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="56.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="86.7"/>
@@ -2177,29 +2224,29 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>181</v>
+        <v>189</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>190</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>185</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>186</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2224,38 +2271,38 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="57.24"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="57.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="58.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="108.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>188</v>
+        <v>196</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>197</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>193</v>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2276,32 +2323,42 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="61.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="48.73"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2326,38 +2383,38 @@
       <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.61"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="56.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="56.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>195</v>
+        <v>203</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>204</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>200</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -2382,7 +2439,7 @@
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="75.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="72.06"/>
@@ -2391,29 +2448,29 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>202</v>
+        <v>210</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>211</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>207</v>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2438,38 +2495,38 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="74.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="69.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="69.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>218</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>214</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2494,38 +2551,38 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.9"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="94.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>216</v>
+        <v>224</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>225</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>218</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>221</v>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2550,7 +2607,7 @@
       <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.46"/>
@@ -2559,29 +2616,29 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>223</v>
+        <v>231</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>232</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>228</v>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2606,38 +2663,38 @@
       <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.71"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="129.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>230</v>
+        <v>238</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>239</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>235</v>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2662,38 +2719,38 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="64.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="84.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="84.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>237</v>
+        <v>245</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>246</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>242</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2718,38 +2775,38 @@
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="86.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>244</v>
+        <v>252</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>253</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>249</v>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2774,38 +2831,38 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.9"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="91.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="91.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>251</v>
+        <v>259</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>260</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>256</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -2830,38 +2887,38 @@
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="64.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="65.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>258</v>
+        <v>266</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>267</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>263</v>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -2886,7 +2943,7 @@
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="59.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.98"/>
@@ -2895,29 +2952,29 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>22</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2942,41 +2999,41 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="56.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="63.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="63.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="106.15"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>265</v>
+        <v>273</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>274</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>268</v>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>277</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>271</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -3001,30 +3058,30 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>273</v>
+        <v>281</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>282</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>276</v>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -3049,7 +3106,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="65.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="75.21"/>
@@ -3057,29 +3114,29 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>278</v>
+        <v>286</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>287</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>283</v>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -3104,7 +3161,7 @@
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="70.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.84"/>
@@ -3113,29 +3170,29 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>258</v>
+        <v>293</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>267</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>263</v>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -3156,11 +3213,11 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="87.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="92.44"/>
@@ -3169,29 +3226,29 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>289</v>
+        <v>297</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>298</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>294</v>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -3216,38 +3273,38 @@
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="67.12"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="67.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="87.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="71.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>20</v>
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3272,7 +3329,7 @@
       <selection pane="topLeft" activeCell="B51" activeCellId="0" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="69.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="63.27"/>
@@ -3281,29 +3338,29 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>27</v>
+        <v>35</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>36</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3328,7 +3385,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="78.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="85.07"/>
@@ -3337,29 +3394,29 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3384,7 +3441,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="78.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="110.93"/>
@@ -3393,29 +3450,29 @@
   <sheetData>
     <row r="1" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>41</v>
+        <v>49</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>50</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="22.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3440,7 +3497,7 @@
       <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="69.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="67.76"/>
@@ -3449,29 +3506,29 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>48</v>
+        <v>56</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>57</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/phrasal_verbs_part_1.xlsx
+++ b/src/main/resources/excel/phrasal_verbs_part_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Come over" sheetId="1" state="visible" r:id="rId2"/>
@@ -545,7 +545,7 @@
     <t xml:space="preserve">He has taken everybody through his thesis</t>
   </si>
   <si>
-    <t xml:space="preserve">Ha llevado a todos a través de su tesis.</t>
+    <t xml:space="preserve">Ha explicado a todos su tesis.</t>
   </si>
   <si>
     <t xml:space="preserve">My dad took me aside from my friends and informed me that I had passed the entrance exam to university</t>
@@ -1095,10 +1095,10 @@
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="63.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="76.74"/>
   </cols>
   <sheetData>
@@ -1151,7 +1151,7 @@
       <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="67.76"/>
@@ -1207,7 +1207,7 @@
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="82.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="84.21"/>
@@ -1263,7 +1263,7 @@
       <selection pane="topLeft" activeCell="B43" activeCellId="0" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="72.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="94.27"/>
@@ -1319,7 +1319,7 @@
       <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="115.43"/>
@@ -1375,7 +1375,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="57.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.51"/>
@@ -1431,7 +1431,7 @@
       <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="58.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="91.34"/>
@@ -1487,7 +1487,7 @@
       <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="74.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="88.56"/>
@@ -1543,7 +1543,7 @@
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="72.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="78.73"/>
@@ -1599,7 +1599,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="57.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="72.06"/>
@@ -1655,7 +1655,7 @@
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="49.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="65.21"/>
@@ -1711,7 +1711,7 @@
       <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="73.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.87"/>
@@ -1767,7 +1767,7 @@
       <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="79.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="69.1"/>
@@ -1823,7 +1823,7 @@
       <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="59.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.72"/>
@@ -1879,7 +1879,7 @@
       <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="60.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="80.03"/>
@@ -1931,11 +1931,11 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="57.42"/>
@@ -1991,11 +1991,11 @@
       <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="77.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="125.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="125.95"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2047,7 +2047,7 @@
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="69.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="69.29"/>
@@ -2103,9 +2103,9 @@
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.81"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="65.02"/>
   </cols>
@@ -2159,7 +2159,7 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.61"/>
@@ -2215,7 +2215,7 @@
       <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="56.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="86.7"/>
@@ -2271,7 +2271,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="57.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="58.17"/>
@@ -2323,11 +2323,11 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="61.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.05"/>
@@ -2383,9 +2383,9 @@
       <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.62"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="56.88"/>
   </cols>
@@ -2439,7 +2439,7 @@
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="75.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="72.06"/>
@@ -2495,7 +2495,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="74.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.58"/>
@@ -2551,9 +2551,9 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.89"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="62.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="94.66"/>
   </cols>
@@ -2607,7 +2607,7 @@
       <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.46"/>
@@ -2663,7 +2663,7 @@
       <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.6"/>
@@ -2719,7 +2719,7 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="64.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.76"/>
@@ -2775,7 +2775,7 @@
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.02"/>
@@ -2831,11 +2831,11 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.89"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="91.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="91.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2887,11 +2887,11 @@
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="64.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="65.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2943,7 +2943,7 @@
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="59.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.98"/>
@@ -2999,7 +2999,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="56.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="63.71"/>
@@ -3058,7 +3058,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.87"/>
@@ -3106,7 +3106,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="65.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="75.21"/>
@@ -3161,7 +3161,7 @@
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="70.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.84"/>
@@ -3217,7 +3217,7 @@
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="87.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="92.44"/>
@@ -3273,7 +3273,7 @@
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="67.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="87.64"/>
@@ -3329,7 +3329,7 @@
       <selection pane="topLeft" activeCell="B51" activeCellId="0" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="69.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="63.27"/>
@@ -3385,7 +3385,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="78.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="85.07"/>
@@ -3441,7 +3441,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="78.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="110.93"/>
@@ -3497,7 +3497,7 @@
       <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="69.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="67.76"/>
